--- a/data/Rekakapitulasi-Perawatan.xlsx
+++ b/data/Rekakapitulasi-Perawatan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\3. TSSP.3\1. Laporan Bulanan\2026\2. Feb\KP\Perawatan Peralatan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047618f1b9410114/Desktop/p3ste-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7477A721-2DCC-4224-B1B8-312CFA0BE5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{7477A721-2DCC-4224-B1B8-312CFA0BE5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{566917BB-7B4D-4B5C-9075-833B00F8EECF}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{89E2D6B6-1DCD-4189-A113-A83F3B882A03}"/>
   </bookViews>
@@ -740,8 +740,8 @@
   <dimension ref="A1:J393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D393" sqref="D393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -790,7 +790,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B2" s="2">
         <v>2026</v>
@@ -811,18 +811,18 @@
         <v>866</v>
       </c>
       <c r="H2">
-        <v>3351</v>
+        <v>1715</v>
       </c>
       <c r="I2">
         <v>20580</v>
       </c>
       <c r="J2" s="1">
-        <v>0.1628</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B3" s="2">
         <v>2026</v>
@@ -843,18 +843,18 @@
         <v>278</v>
       </c>
       <c r="H3">
-        <v>429</v>
+        <v>258</v>
       </c>
       <c r="I3">
         <v>3024</v>
       </c>
       <c r="J3" s="1">
-        <v>0.1419</v>
+        <v>8.5300000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B4" s="2">
         <v>2026</v>
@@ -875,18 +875,18 @@
         <v>1610</v>
       </c>
       <c r="H4">
-        <v>2781</v>
+        <v>1609</v>
       </c>
       <c r="I4">
         <v>19416</v>
       </c>
       <c r="J4" s="1">
-        <v>0.14319999999999999</v>
+        <v>8.2900000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B5" s="2">
         <v>2026</v>
@@ -907,18 +907,18 @@
         <v>2269</v>
       </c>
       <c r="H5">
-        <v>3865</v>
+        <v>2278</v>
       </c>
       <c r="I5">
-        <v>27456</v>
+        <v>27444</v>
       </c>
       <c r="J5" s="1">
-        <v>0.14080000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B6" s="2">
         <v>2026</v>
@@ -939,18 +939,18 @@
         <v>116</v>
       </c>
       <c r="H6">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="I6">
         <v>1404</v>
       </c>
       <c r="J6" s="1">
-        <v>0.1303</v>
+        <v>8.1900000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B7" s="2">
         <v>2026</v>
@@ -971,18 +971,18 @@
         <v>24</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <v>556</v>
       </c>
       <c r="J7" s="1">
-        <v>0.16370000000000001</v>
+        <v>8.2699999999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B8" s="2">
         <v>2026</v>
@@ -1003,18 +1003,18 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>48</v>
       </c>
       <c r="J8" s="1">
-        <v>0.14580000000000001</v>
+        <v>0.1042</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B9" s="2">
         <v>2026</v>
@@ -1035,18 +1035,18 @@
         <v>78</v>
       </c>
       <c r="H9">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>950</v>
       </c>
       <c r="J9" s="1">
-        <v>0.1242</v>
+        <v>8.3199999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B10" s="2">
         <v>2026</v>
@@ -1067,18 +1067,18 @@
         <v>290</v>
       </c>
       <c r="H10">
-        <v>502</v>
+        <v>296</v>
       </c>
       <c r="I10">
         <v>3552</v>
       </c>
       <c r="J10" s="1">
-        <v>0.14130000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B11" s="2">
         <v>2026</v>
@@ -1099,18 +1099,18 @@
         <v>212</v>
       </c>
       <c r="H11">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="I11">
         <v>2508</v>
       </c>
       <c r="J11" s="1">
-        <v>0.12959999999999999</v>
+        <v>8.4099999999999994E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B12" s="2">
         <v>2026</v>
@@ -1131,18 +1131,18 @@
         <v>52</v>
       </c>
       <c r="H12">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="I12">
         <v>624</v>
       </c>
       <c r="J12" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B13" s="2">
         <v>2026</v>
@@ -1163,18 +1163,18 @@
         <v>58</v>
       </c>
       <c r="H13">
-        <v>4093</v>
+        <v>2458</v>
       </c>
       <c r="I13">
         <v>25564</v>
       </c>
       <c r="J13" s="1">
-        <v>0.16009999999999999</v>
+        <v>9.6199999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B14" s="2">
         <v>2026</v>
@@ -1195,18 +1195,18 @@
         <v>55</v>
       </c>
       <c r="H14">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I14">
         <v>228</v>
       </c>
       <c r="J14" s="1">
-        <v>0.1623</v>
+        <v>7.46E-2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B15" s="2">
         <v>2026</v>
@@ -1227,18 +1227,18 @@
         <v>55</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I15">
         <v>57</v>
       </c>
       <c r="J15" s="1">
-        <v>0.21049999999999999</v>
+        <v>8.77E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B16" s="2">
         <v>2026</v>
@@ -1259,18 +1259,18 @@
         <v>133</v>
       </c>
       <c r="H16">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="I16">
         <v>548</v>
       </c>
       <c r="J16" s="1">
-        <v>0.17699999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B17" s="2">
         <v>2026</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B18" s="2">
         <v>2026</v>
@@ -1323,18 +1323,18 @@
         <v>43</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>90</v>
       </c>
       <c r="J18" s="1">
-        <v>0.1444</v>
+        <v>8.8900000000000007E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B19" s="2">
         <v>2026</v>
@@ -1355,18 +1355,18 @@
         <v>621</v>
       </c>
       <c r="H19">
-        <v>16249</v>
+        <v>9707</v>
       </c>
       <c r="I19">
         <v>117348</v>
       </c>
       <c r="J19" s="1">
-        <v>0.13850000000000001</v>
+        <v>8.2699999999999996E-2</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B20" s="2">
         <v>2026</v>
@@ -1387,18 +1387,18 @@
         <v>98</v>
       </c>
       <c r="H20">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c r="I20">
         <v>1584</v>
       </c>
       <c r="J20" s="1">
-        <v>0.14199999999999999</v>
+        <v>8.7800000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B21" s="2">
         <v>2026</v>
@@ -1419,18 +1419,18 @@
         <v>43</v>
       </c>
       <c r="H21">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="I21">
         <v>516</v>
       </c>
       <c r="J21" s="1">
-        <v>0.126</v>
+        <v>8.5300000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B22" s="2">
         <v>2026</v>
@@ -1451,18 +1451,18 @@
         <v>116</v>
       </c>
       <c r="H22">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="I22">
         <v>1416</v>
       </c>
       <c r="J22" s="1">
-        <v>0.12989999999999999</v>
+        <v>8.1900000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B23" s="2">
         <v>2026</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B24" s="2">
         <v>2026</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B25" s="2">
         <v>2026</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B26" s="2">
         <v>2026</v>
@@ -1539,10 +1539,11 @@
       <c r="F26" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B27" s="2">
         <v>2026</v>
@@ -1563,18 +1564,18 @@
         <v>59</v>
       </c>
       <c r="H27">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="I27">
         <v>1416</v>
       </c>
       <c r="J27" s="1">
-        <v>0.14899999999999999</v>
+        <v>8.1900000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B28" s="2">
         <v>2026</v>
@@ -1595,18 +1596,18 @@
         <v>47</v>
       </c>
       <c r="H28">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I28">
         <v>564</v>
       </c>
       <c r="J28" s="1">
-        <v>0.1454</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B29" s="2">
         <v>2026</v>
@@ -1627,18 +1628,18 @@
         <v>59</v>
       </c>
       <c r="H29">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="I29">
         <v>708</v>
       </c>
       <c r="J29" s="1">
-        <v>0.15679999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B30" s="2">
         <v>2026</v>
@@ -1659,18 +1660,18 @@
         <v>398</v>
       </c>
       <c r="H30">
-        <v>650</v>
+        <v>394</v>
       </c>
       <c r="I30">
         <v>4776</v>
       </c>
       <c r="J30" s="1">
-        <v>0.1361</v>
+        <v>8.2500000000000004E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B31" s="2">
         <v>2026</v>
@@ -1691,18 +1692,18 @@
         <v>398</v>
       </c>
       <c r="H31">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I31">
         <v>398</v>
       </c>
       <c r="J31" s="1">
-        <v>0.18090000000000001</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B32" s="2">
         <v>2026</v>
@@ -1723,18 +1724,18 @@
         <v>64</v>
       </c>
       <c r="H32">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I32">
         <v>128</v>
       </c>
       <c r="J32" s="1">
-        <v>0.25</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B33" s="2">
         <v>2026</v>
@@ -1755,18 +1756,18 @@
         <v>61</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I33">
         <v>244</v>
       </c>
       <c r="J33" s="1">
-        <v>0.1762</v>
+        <v>6.5600000000000006E-2</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B34" s="2">
         <v>2026</v>
@@ -1787,18 +1788,18 @@
         <v>59</v>
       </c>
       <c r="H34">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>59</v>
       </c>
       <c r="J34" s="1">
-        <v>0.37290000000000001</v>
+        <v>0.1017</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B35" s="2">
         <v>2026</v>
@@ -1819,18 +1820,18 @@
         <v>163</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I35">
         <v>163</v>
       </c>
       <c r="J35" s="1">
-        <v>9.1999999999999998E-2</v>
+        <v>7.3599999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B36" s="2">
         <v>2026</v>
@@ -1851,18 +1852,18 @@
         <v>265</v>
       </c>
       <c r="H36">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I36">
         <v>265</v>
       </c>
       <c r="J36" s="1">
-        <v>5.6599999999999998E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B37" s="2">
         <v>2026</v>
@@ -1883,18 +1884,18 @@
         <v>72</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I37">
         <v>72</v>
       </c>
       <c r="J37" s="1">
-        <v>0.1111</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B38" s="2">
         <v>2026</v>
@@ -1926,7 +1927,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B39" s="2">
         <v>2026</v>
@@ -1955,7 +1956,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B40" s="2">
         <v>2026</v>
@@ -1976,18 +1977,18 @@
         <v>30</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>60</v>
       </c>
       <c r="J40" s="1">
-        <v>0.16669999999999999</v>
+        <v>6.6699999999999995E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B41" s="2">
         <v>2026</v>
@@ -2008,18 +2009,18 @@
         <v>395</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="I41">
         <v>395</v>
       </c>
       <c r="J41" s="1">
-        <v>0.25319999999999998</v>
+        <v>0.13420000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B42" s="2">
         <v>2026</v>
@@ -2040,18 +2041,18 @@
         <v>100</v>
       </c>
       <c r="H42">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I42">
         <v>400</v>
       </c>
       <c r="J42" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B43" s="2">
         <v>2026</v>
@@ -2072,18 +2073,18 @@
         <v>244</v>
       </c>
       <c r="H43">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I43">
         <v>244</v>
       </c>
       <c r="J43" s="1">
-        <v>0.23769999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B44" s="2">
         <v>2026</v>
@@ -2104,18 +2105,18 @@
         <v>69</v>
       </c>
       <c r="H44">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I44">
         <v>276</v>
       </c>
       <c r="J44" s="1">
-        <v>0.1449</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B45" s="2">
         <v>2026</v>
@@ -2136,18 +2137,18 @@
         <v>61</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I45">
         <v>61</v>
       </c>
       <c r="J45" s="1">
-        <v>9.8400000000000001E-2</v>
+        <v>6.5600000000000006E-2</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B46" s="2">
         <v>2026</v>
@@ -2176,7 +2177,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B47" s="2">
         <v>2026</v>
@@ -2197,18 +2198,18 @@
         <v>691280</v>
       </c>
       <c r="H47">
-        <v>1141193</v>
+        <v>671122</v>
       </c>
       <c r="I47">
         <v>8295360</v>
       </c>
       <c r="J47" s="1">
-        <v>0.1376</v>
+        <v>8.09E-2</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B48" s="2">
         <v>2026</v>
@@ -2229,18 +2230,18 @@
         <v>689046</v>
       </c>
       <c r="H48">
-        <v>183859</v>
+        <v>109448</v>
       </c>
       <c r="I48">
         <v>1378092</v>
       </c>
       <c r="J48" s="1">
-        <v>0.13339999999999999</v>
+        <v>7.9399999999999998E-2</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B49" s="2">
         <v>2026</v>
@@ -2261,18 +2262,18 @@
         <v>647</v>
       </c>
       <c r="H49">
-        <v>2227</v>
+        <v>1195</v>
       </c>
       <c r="I49">
         <v>15528</v>
       </c>
       <c r="J49" s="1">
-        <v>0.1434</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B50" s="2">
         <v>2026</v>
@@ -2290,21 +2291,21 @@
         <v>42</v>
       </c>
       <c r="G50">
-        <v>692306</v>
+        <v>691280</v>
       </c>
       <c r="H50">
-        <v>529875</v>
+        <v>352697</v>
       </c>
       <c r="I50">
-        <v>2769224</v>
+        <v>2765120</v>
       </c>
       <c r="J50" s="1">
-        <v>0.1913</v>
+        <v>0.12759999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B51" s="2">
         <v>2026</v>
@@ -2325,18 +2326,18 @@
         <v>691280</v>
       </c>
       <c r="H51">
-        <v>164073</v>
+        <v>91147</v>
       </c>
       <c r="I51">
         <v>691280</v>
       </c>
       <c r="J51" s="1">
-        <v>0.23730000000000001</v>
+        <v>0.13189999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B52" s="2">
         <v>2026</v>
@@ -2357,18 +2358,18 @@
         <v>345</v>
       </c>
       <c r="H52">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="I52">
         <v>1380</v>
       </c>
       <c r="J52" s="1">
-        <v>0.1406</v>
+        <v>6.3799999999999996E-2</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B53" s="2">
         <v>2026</v>
@@ -2389,18 +2390,18 @@
         <v>501</v>
       </c>
       <c r="H53">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="I53">
         <v>501</v>
       </c>
       <c r="J53" s="1">
-        <v>0.23150000000000001</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B54" s="2">
         <v>2026</v>
@@ -2421,18 +2422,18 @@
         <v>1109</v>
       </c>
       <c r="H54">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="I54">
         <v>2218</v>
       </c>
       <c r="J54" s="1">
-        <v>0.13300000000000001</v>
+        <v>6.4899999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B55" s="2">
         <v>2026</v>
@@ -2453,18 +2454,18 @@
         <v>643</v>
       </c>
       <c r="H55">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I55">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="J55" s="1">
-        <v>8.7800000000000003E-2</v>
+        <v>3.27E-2</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B56" s="2">
         <v>2026</v>
@@ -2493,7 +2494,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B57" s="2">
         <v>2026</v>
@@ -2522,7 +2523,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B58" s="2">
         <v>2026</v>
@@ -2543,18 +2544,18 @@
         <v>59</v>
       </c>
       <c r="H58">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="I58">
         <v>1416</v>
       </c>
       <c r="J58" s="1">
-        <v>0.14269999999999999</v>
+        <v>7.9799999999999996E-2</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B59" s="2">
         <v>2026</v>
@@ -2575,18 +2576,18 @@
         <v>47</v>
       </c>
       <c r="H59">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="I59">
         <v>564</v>
       </c>
       <c r="J59" s="1">
-        <v>0.1454</v>
+        <v>7.6200000000000004E-2</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B60" s="2">
         <v>2026</v>
@@ -2603,10 +2604,11 @@
       <c r="F60" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B61" s="2">
         <v>2026</v>
@@ -2627,18 +2629,18 @@
         <v>366</v>
       </c>
       <c r="H61">
-        <v>1296</v>
+        <v>732</v>
       </c>
       <c r="I61">
         <v>8784</v>
       </c>
       <c r="J61" s="1">
-        <v>0.14749999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B62" s="2">
         <v>2026</v>
@@ -2659,18 +2661,18 @@
         <v>244</v>
       </c>
       <c r="H62">
-        <v>481</v>
+        <v>244</v>
       </c>
       <c r="I62">
         <v>2928</v>
       </c>
       <c r="J62" s="1">
-        <v>0.1643</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B63" s="2">
         <v>2026</v>
@@ -2691,18 +2693,18 @@
         <v>640</v>
       </c>
       <c r="H63">
-        <v>1228</v>
+        <v>640</v>
       </c>
       <c r="I63">
         <v>7680</v>
       </c>
       <c r="J63" s="1">
-        <v>0.15989999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B64" s="2">
         <v>2026</v>
@@ -2723,18 +2725,18 @@
         <v>696</v>
       </c>
       <c r="H64">
-        <v>1405</v>
+        <v>746</v>
       </c>
       <c r="I64">
         <v>8952</v>
       </c>
       <c r="J64" s="1">
-        <v>0.15690000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B65" s="2">
         <v>2026</v>
@@ -2755,18 +2757,18 @@
         <v>90</v>
       </c>
       <c r="H65">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="I65">
         <v>1104</v>
       </c>
       <c r="J65" s="1">
-        <v>0.125</v>
+        <v>8.2400000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B66" s="2">
         <v>2026</v>
@@ -2787,18 +2789,18 @@
         <v>8</v>
       </c>
       <c r="H66">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I66">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="J66" s="1">
-        <v>0.15</v>
+        <v>0.11459999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B67" s="2">
         <v>2026</v>
@@ -2819,18 +2821,18 @@
         <v>25</v>
       </c>
       <c r="H67">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I67">
         <v>300</v>
       </c>
       <c r="J67" s="1">
-        <v>0.15670000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B68" s="2">
         <v>2026</v>
@@ -2851,18 +2853,18 @@
         <v>3</v>
       </c>
       <c r="H68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I68">
         <v>36</v>
       </c>
       <c r="J68" s="1">
-        <v>0.1111</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B69" s="2">
         <v>2026</v>
@@ -2883,18 +2885,18 @@
         <v>73</v>
       </c>
       <c r="H69">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="I69">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="J69" s="1">
-        <v>0.14380000000000001</v>
+        <v>8.6900000000000005E-2</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B70" s="2">
         <v>2026</v>
@@ -2915,18 +2917,18 @@
         <v>139</v>
       </c>
       <c r="H70">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="I70">
         <v>1668</v>
       </c>
       <c r="J70" s="1">
-        <v>0.15229999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B71" s="2">
         <v>2026</v>
@@ -2947,18 +2949,18 @@
         <v>273</v>
       </c>
       <c r="H71">
-        <v>528</v>
+        <v>273</v>
       </c>
       <c r="I71">
         <v>3276</v>
       </c>
       <c r="J71" s="1">
-        <v>0.16120000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B72" s="2">
         <v>2026</v>
@@ -2979,18 +2981,18 @@
         <v>14</v>
       </c>
       <c r="H72">
-        <v>742</v>
+        <v>434</v>
       </c>
       <c r="I72">
         <v>5110</v>
       </c>
       <c r="J72" s="1">
-        <v>0.1452</v>
+        <v>8.4900000000000003E-2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B73" s="2">
         <v>2026</v>
@@ -3011,18 +3013,18 @@
         <v>30</v>
       </c>
       <c r="H73">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I73">
         <v>120</v>
       </c>
       <c r="J73" s="1">
-        <v>0.1167</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B74" s="2">
         <v>2026</v>
@@ -3054,7 +3056,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B75" s="2">
         <v>2026</v>
@@ -3086,7 +3088,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B76" s="2">
         <v>2026</v>
@@ -3107,18 +3109,18 @@
         <v>47</v>
       </c>
       <c r="H76">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I76">
         <v>52</v>
       </c>
       <c r="J76" s="1">
-        <v>0.53849999999999998</v>
+        <v>0.15379999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B77" s="2">
         <v>2026</v>
@@ -3150,7 +3152,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B78" s="2">
         <v>2026</v>
@@ -3171,18 +3173,18 @@
         <v>17</v>
       </c>
       <c r="H78">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>34</v>
       </c>
       <c r="J78" s="1">
-        <v>0.38240000000000002</v>
+        <v>5.8799999999999998E-2</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B79" s="2">
         <v>2026</v>
@@ -3203,18 +3205,18 @@
         <v>189</v>
       </c>
       <c r="H79">
-        <v>325</v>
+        <v>189</v>
       </c>
       <c r="I79">
         <v>2268</v>
       </c>
       <c r="J79" s="1">
-        <v>0.14330000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B80" s="2">
         <v>2026</v>
@@ -3235,18 +3237,18 @@
         <v>287</v>
       </c>
       <c r="H80">
-        <v>545</v>
+        <v>286</v>
       </c>
       <c r="I80">
         <v>3444</v>
       </c>
       <c r="J80" s="1">
-        <v>0.15820000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B81" s="2">
         <v>2026</v>
@@ -3267,18 +3269,18 @@
         <v>74</v>
       </c>
       <c r="H81">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I81">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="J81" s="1">
-        <v>0.1308</v>
+        <v>8.5500000000000007E-2</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B82" s="2">
         <v>2026</v>
@@ -3299,18 +3301,18 @@
         <v>123</v>
       </c>
       <c r="H82">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="I82">
         <v>1644</v>
       </c>
       <c r="J82" s="1">
-        <v>0.121</v>
+        <v>8.2100000000000006E-2</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B83" s="2">
         <v>2026</v>
@@ -3327,10 +3329,11 @@
       <c r="F83" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J83" s="1"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B84" s="2">
         <v>2026</v>
@@ -3351,18 +3354,18 @@
         <v>29</v>
       </c>
       <c r="H84">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="I84">
         <v>348</v>
       </c>
       <c r="J84" s="1">
-        <v>0.1236</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B85" s="2">
         <v>2026</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B86" s="2">
         <v>2026</v>
@@ -3415,18 +3418,18 @@
         <v>293</v>
       </c>
       <c r="H86">
-        <v>1090</v>
+        <v>586</v>
       </c>
       <c r="I86">
-        <v>7032</v>
+        <v>7044</v>
       </c>
       <c r="J86" s="1">
-        <v>0.155</v>
+        <v>8.3199999999999996E-2</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B87" s="2">
         <v>2026</v>
@@ -3447,18 +3450,18 @@
         <v>37</v>
       </c>
       <c r="H87">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="I87">
         <v>444</v>
       </c>
       <c r="J87" s="1">
-        <v>0.13739999999999999</v>
+        <v>8.1100000000000005E-2</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B88" s="2">
         <v>2026</v>
@@ -3479,18 +3482,18 @@
         <v>493</v>
       </c>
       <c r="H88">
-        <v>848</v>
+        <v>499</v>
       </c>
       <c r="I88">
         <v>5916</v>
       </c>
       <c r="J88" s="1">
-        <v>0.14330000000000001</v>
+        <v>8.43E-2</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B89" s="2">
         <v>2026</v>
@@ -3511,18 +3514,18 @@
         <v>2</v>
       </c>
       <c r="H89">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>24</v>
       </c>
       <c r="J89" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B90" s="2">
         <v>2026</v>
@@ -3543,18 +3546,18 @@
         <v>749</v>
       </c>
       <c r="H90">
-        <v>1399</v>
+        <v>749</v>
       </c>
       <c r="I90">
         <v>8988</v>
       </c>
       <c r="J90" s="1">
-        <v>0.15570000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B91" s="2">
         <v>2026</v>
@@ -3575,18 +3578,18 @@
         <v>177</v>
       </c>
       <c r="H91">
-        <v>305</v>
+        <v>151</v>
       </c>
       <c r="I91">
-        <v>1932</v>
+        <v>2124</v>
       </c>
       <c r="J91" s="1">
-        <v>0.15790000000000001</v>
+        <v>7.1099999999999997E-2</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B92" s="2">
         <v>2026</v>
@@ -3607,18 +3610,18 @@
         <v>45</v>
       </c>
       <c r="H92">
-        <v>175</v>
+        <v>89</v>
       </c>
       <c r="I92">
-        <v>1128</v>
+        <v>1152</v>
       </c>
       <c r="J92" s="1">
-        <v>0.15509999999999999</v>
+        <v>7.7299999999999994E-2</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B93" s="2">
         <v>2026</v>
@@ -3639,18 +3642,18 @@
         <v>55</v>
       </c>
       <c r="H93">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I93">
         <v>660</v>
       </c>
       <c r="J93" s="1">
-        <v>0.1348</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B94" s="2">
         <v>2026</v>
@@ -3667,10 +3670,11 @@
       <c r="F94" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J94" s="1"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B95" s="2">
         <v>2026</v>
@@ -3691,18 +3695,18 @@
         <v>45</v>
       </c>
       <c r="H95">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I95">
         <v>540</v>
       </c>
       <c r="J95" s="1">
-        <v>0.13519999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B96" s="2">
         <v>2026</v>
@@ -3719,10 +3723,11 @@
       <c r="F96" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J96" s="1"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B97" s="2">
         <v>2026</v>
@@ -3743,18 +3748,18 @@
         <v>3</v>
       </c>
       <c r="H97">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="I97">
         <v>1095</v>
       </c>
       <c r="J97" s="1">
-        <v>0.2137</v>
+        <v>0.12970000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B98" s="2">
         <v>2026</v>
@@ -3775,18 +3780,18 @@
         <v>14</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I98">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J98" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1429</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B99" s="2">
         <v>2026</v>
@@ -3818,7 +3823,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B100" s="2">
         <v>2026</v>
@@ -3839,18 +3844,18 @@
         <v>33</v>
       </c>
       <c r="H100">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I100">
         <v>132</v>
       </c>
       <c r="J100" s="1">
-        <v>0.17419999999999999</v>
+        <v>6.8199999999999997E-2</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B101" s="2">
         <v>2026</v>
@@ -3867,10 +3872,11 @@
       <c r="F101" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="J101" s="1"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B102" s="2">
         <v>2026</v>
@@ -3902,7 +3908,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B103" s="2">
         <v>2026</v>
@@ -3934,7 +3940,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B104" s="2">
         <v>2026</v>
@@ -3955,18 +3961,18 @@
         <v>30</v>
       </c>
       <c r="H104">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I104">
         <v>360</v>
       </c>
       <c r="J104" s="1">
-        <v>0.1389</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B105" s="2">
         <v>2026</v>
@@ -3998,7 +4004,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B106" s="2">
         <v>2026</v>
@@ -4019,18 +4025,18 @@
         <v>45</v>
       </c>
       <c r="H106">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="I106">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="J106" s="1">
-        <v>0.13950000000000001</v>
+        <v>8.5199999999999998E-2</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B107" s="2">
         <v>2026</v>
@@ -4047,10 +4053,11 @@
       <c r="F107" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="J107" s="1"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B108" s="2">
         <v>2026</v>
@@ -4071,18 +4078,18 @@
         <v>50</v>
       </c>
       <c r="H108">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I108">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="J108" s="1">
-        <v>0.13089999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B109" s="2">
         <v>2026</v>
@@ -4099,10 +4106,11 @@
       <c r="F109" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="J109" s="1"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B110" s="2">
         <v>2026</v>
@@ -4134,7 +4142,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B111" s="2">
         <v>2026</v>
@@ -4155,18 +4163,18 @@
         <v>459</v>
       </c>
       <c r="H111">
-        <v>1272</v>
+        <v>429</v>
       </c>
       <c r="I111">
-        <v>10992</v>
+        <v>11016</v>
       </c>
       <c r="J111" s="1">
-        <v>0.1157</v>
+        <v>3.8899999999999997E-2</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B112" s="2">
         <v>2026</v>
@@ -4187,18 +4195,18 @@
         <v>5</v>
       </c>
       <c r="H112">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I112">
         <v>60</v>
       </c>
       <c r="J112" s="1">
-        <v>0.2167</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B113" s="2">
         <v>2026</v>
@@ -4219,18 +4227,18 @@
         <v>43</v>
       </c>
       <c r="H113">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I113">
         <v>516</v>
       </c>
       <c r="J113" s="1">
-        <v>0.1124</v>
+        <v>0.1143</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B114" s="2">
         <v>2026</v>
@@ -4248,21 +4256,21 @@
         <v>30</v>
       </c>
       <c r="G114">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H114">
-        <v>1591</v>
+        <v>780</v>
       </c>
       <c r="I114">
-        <v>7992</v>
+        <v>7908</v>
       </c>
       <c r="J114" s="1">
-        <v>0.1991</v>
+        <v>9.8599999999999993E-2</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B115" s="2">
         <v>2026</v>
@@ -4280,21 +4288,21 @@
         <v>30</v>
       </c>
       <c r="G115">
-        <v>1022</v>
+        <v>1036</v>
       </c>
       <c r="H115">
-        <v>1022</v>
+        <v>449</v>
       </c>
       <c r="I115">
-        <v>12264</v>
+        <v>12432</v>
       </c>
       <c r="J115" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>3.61E-2</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B116" s="2">
         <v>2026</v>
@@ -4315,18 +4323,18 @@
         <v>71</v>
       </c>
       <c r="H116">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I116">
         <v>852</v>
       </c>
       <c r="J116" s="1">
-        <v>0.1033</v>
+        <v>6.8099999999999994E-2</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B117" s="2">
         <v>2026</v>
@@ -4347,18 +4355,18 @@
         <v>22</v>
       </c>
       <c r="H117">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I117">
         <v>528</v>
       </c>
       <c r="J117" s="1">
-        <v>0.1023</v>
+        <v>7.7700000000000005E-2</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B118" s="2">
         <v>2026</v>
@@ -4379,18 +4387,18 @@
         <v>5</v>
       </c>
       <c r="H118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I118">
         <v>60</v>
       </c>
       <c r="J118" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B119" s="2">
         <v>2026</v>
@@ -4411,18 +4419,18 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>12</v>
       </c>
       <c r="J119" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B120" s="2">
         <v>2026</v>
@@ -4443,18 +4451,18 @@
         <v>81</v>
       </c>
       <c r="H120">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="I120">
         <v>972</v>
       </c>
       <c r="J120" s="1">
-        <v>0.1163</v>
+        <v>5.7599999999999998E-2</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B121" s="2">
         <v>2026</v>
@@ -4475,18 +4483,18 @@
         <v>52</v>
       </c>
       <c r="H121">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I121">
         <v>624</v>
       </c>
       <c r="J121" s="1">
-        <v>0.10100000000000001</v>
+        <v>8.8099999999999998E-2</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B122" s="2">
         <v>2026</v>
@@ -4507,18 +4515,18 @@
         <v>44</v>
       </c>
       <c r="H122">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I122">
         <v>528</v>
       </c>
       <c r="J122" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B123" s="2">
         <v>2026</v>
@@ -4539,18 +4547,18 @@
         <v>11</v>
       </c>
       <c r="H123">
-        <v>601</v>
+        <v>298</v>
       </c>
       <c r="I123">
         <v>4046</v>
       </c>
       <c r="J123" s="1">
-        <v>0.14849999999999999</v>
+        <v>7.3700000000000002E-2</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B124" s="2">
         <v>2026</v>
@@ -4568,21 +4576,21 @@
         <v>42</v>
       </c>
       <c r="G124">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H124">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I124">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J124" s="1">
-        <v>0.23530000000000001</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B125" s="2">
         <v>2026</v>
@@ -4600,21 +4608,21 @@
         <v>43</v>
       </c>
       <c r="G125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J125" s="1">
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B126" s="2">
         <v>2026</v>
@@ -4632,21 +4640,21 @@
         <v>42</v>
       </c>
       <c r="G126">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H126">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I126">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J126" s="1">
-        <v>9.4399999999999998E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B127" s="2">
         <v>2026</v>
@@ -4664,21 +4672,21 @@
         <v>43</v>
       </c>
       <c r="G127">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H127">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J127" s="1">
-        <v>0.31109999999999999</v>
+        <v>2.2700000000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B128" s="2">
         <v>2026</v>
@@ -4710,7 +4718,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B129" s="2">
         <v>2026</v>
@@ -4731,18 +4739,18 @@
         <v>12</v>
       </c>
       <c r="H129">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>24</v>
       </c>
       <c r="J129" s="1">
-        <v>0.375</v>
+        <v>4.1700000000000001E-2</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B130" s="2">
         <v>2026</v>
@@ -4760,21 +4768,21 @@
         <v>30</v>
       </c>
       <c r="G130">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H130">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="I130">
-        <v>2256</v>
+        <v>2040</v>
       </c>
       <c r="J130" s="1">
-        <v>0.14849999999999999</v>
+        <v>0.14660000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B131" s="2">
         <v>2026</v>
@@ -4795,18 +4803,18 @@
         <v>43</v>
       </c>
       <c r="H131">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I131">
         <v>516</v>
       </c>
       <c r="J131" s="1">
-        <v>0.1047</v>
+        <v>7.5600000000000001E-2</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B132" s="2">
         <v>2026</v>
@@ -4824,21 +4832,21 @@
         <v>30</v>
       </c>
       <c r="G132">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H132">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I132">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="J132" s="1">
-        <v>0.13689999999999999</v>
+        <v>0.1623</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B133" s="2">
         <v>2026</v>
@@ -4859,18 +4867,18 @@
         <v>52</v>
       </c>
       <c r="H133">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I133">
         <v>624</v>
       </c>
       <c r="J133" s="1">
-        <v>0.1186</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B134" s="2">
         <v>2026</v>
@@ -4890,7 +4898,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B135" s="2">
         <v>2026</v>
@@ -4910,7 +4918,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B136" s="2">
         <v>2026</v>
@@ -4927,10 +4935,11 @@
       <c r="F136" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="J136" s="1"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B137" s="2">
         <v>2026</v>
@@ -4951,18 +4960,18 @@
         <v>41</v>
       </c>
       <c r="H137">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I137">
         <v>492</v>
       </c>
       <c r="J137" s="1">
-        <v>0.122</v>
+        <v>8.1299999999999997E-2</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B138" s="2">
         <v>2026</v>
@@ -4983,18 +4992,18 @@
         <v>585</v>
       </c>
       <c r="H138">
-        <v>1138</v>
+        <v>586</v>
       </c>
       <c r="I138">
         <v>7020</v>
       </c>
       <c r="J138" s="1">
-        <v>0.16209999999999999</v>
+        <v>8.3500000000000005E-2</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B139" s="2">
         <v>2026</v>
@@ -5015,18 +5024,18 @@
         <v>383</v>
       </c>
       <c r="H139">
-        <v>1500</v>
+        <v>762</v>
       </c>
       <c r="I139">
         <v>9144</v>
       </c>
       <c r="J139" s="1">
-        <v>0.16400000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B140" s="2">
         <v>2026</v>
@@ -5047,18 +5056,18 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>12</v>
       </c>
       <c r="J140" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B141" s="2">
         <v>2026</v>
@@ -5079,18 +5088,18 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>12</v>
       </c>
       <c r="J141" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B142" s="2">
         <v>2026</v>
@@ -5111,18 +5120,18 @@
         <v>22</v>
       </c>
       <c r="H142">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I142">
         <v>264</v>
       </c>
       <c r="J142" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B143" s="2">
         <v>2026</v>
@@ -5143,18 +5152,18 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>12</v>
       </c>
       <c r="J143" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B144" s="2">
         <v>2026</v>
@@ -5175,18 +5184,18 @@
         <v>898</v>
       </c>
       <c r="H144">
-        <v>1750</v>
+        <v>909</v>
       </c>
       <c r="I144">
         <v>10776</v>
       </c>
       <c r="J144" s="1">
-        <v>0.16239999999999999</v>
+        <v>8.4400000000000003E-2</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B145" s="2">
         <v>2026</v>
@@ -5207,18 +5216,18 @@
         <v>126</v>
       </c>
       <c r="H145">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="I145">
         <v>1512</v>
       </c>
       <c r="J145" s="1">
-        <v>0.16270000000000001</v>
+        <v>8.4699999999999998E-2</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B146" s="2">
         <v>2026</v>
@@ -5239,18 +5248,18 @@
         <v>14</v>
       </c>
       <c r="H146">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I146">
         <v>336</v>
       </c>
       <c r="J146" s="1">
-        <v>0.15770000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B147" s="2">
         <v>2026</v>
@@ -5271,18 +5280,18 @@
         <v>60</v>
       </c>
       <c r="H147">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="I147">
         <v>720</v>
       </c>
       <c r="J147" s="1">
-        <v>0.1236</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B148" s="2">
         <v>2026</v>
@@ -5303,18 +5312,18 @@
         <v>51</v>
       </c>
       <c r="H148">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="I148">
         <v>624</v>
       </c>
       <c r="J148" s="1">
-        <v>0.12820000000000001</v>
+        <v>8.1699999999999995E-2</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B149" s="2">
         <v>2026</v>
@@ -5335,18 +5344,18 @@
         <v>7</v>
       </c>
       <c r="H149">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I149">
         <v>84</v>
       </c>
       <c r="J149" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B150" s="2">
         <v>2026</v>
@@ -5367,18 +5376,18 @@
         <v>4</v>
       </c>
       <c r="H150">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>48</v>
       </c>
       <c r="J150" s="1">
-        <v>0.14580000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B151" s="2">
         <v>2026</v>
@@ -5410,7 +5419,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B152" s="2">
         <v>2026</v>
@@ -5431,18 +5440,18 @@
         <v>13</v>
       </c>
       <c r="H152">
-        <v>827</v>
+        <v>483</v>
       </c>
       <c r="I152">
         <v>4745</v>
       </c>
       <c r="J152" s="1">
-        <v>0.17430000000000001</v>
+        <v>0.1018</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B153" s="2">
         <v>2026</v>
@@ -5463,18 +5472,18 @@
         <v>29</v>
       </c>
       <c r="H153">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I153">
         <v>112</v>
       </c>
       <c r="J153" s="1">
-        <v>0.24110000000000001</v>
+        <v>0.16070000000000001</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B154" s="2">
         <v>2026</v>
@@ -5506,7 +5515,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B155" s="2">
         <v>2026</v>
@@ -5527,18 +5536,18 @@
         <v>45</v>
       </c>
       <c r="H155">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I155">
         <v>180</v>
       </c>
       <c r="J155" s="1">
-        <v>0.2278</v>
+        <v>0.21110000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B156" s="2">
         <v>2026</v>
@@ -5570,7 +5579,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B157" s="2">
         <v>2026</v>
@@ -5602,7 +5611,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B158" s="2">
         <v>2026</v>
@@ -5634,7 +5643,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B159" s="2">
         <v>2026</v>
@@ -5655,18 +5664,18 @@
         <v>42</v>
       </c>
       <c r="H159">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="I159">
         <v>492</v>
       </c>
       <c r="J159" s="1">
-        <v>0.1321</v>
+        <v>7.9299999999999995E-2</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B160" s="2">
         <v>2026</v>
@@ -5687,18 +5696,18 @@
         <v>12</v>
       </c>
       <c r="H160">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I160">
         <v>144</v>
       </c>
       <c r="J160" s="1">
-        <v>0.125</v>
+        <v>7.6399999999999996E-2</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B161" s="2">
         <v>2026</v>
@@ -5719,18 +5728,18 @@
         <v>58</v>
       </c>
       <c r="H161">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="I161">
         <v>708</v>
       </c>
       <c r="J161" s="1">
-        <v>0.1215</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B162" s="2">
         <v>2026</v>
@@ -5751,18 +5760,18 @@
         <v>64</v>
       </c>
       <c r="H162">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="I162">
         <v>1956</v>
       </c>
       <c r="J162" s="1">
-        <v>0.1181</v>
+        <v>8.7900000000000006E-2</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B163" s="2">
         <v>2026</v>
@@ -5783,18 +5792,18 @@
         <v>387</v>
       </c>
       <c r="H163">
-        <v>1501</v>
+        <v>774</v>
       </c>
       <c r="I163">
         <v>9288</v>
       </c>
       <c r="J163" s="1">
-        <v>0.16159999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B164" s="2">
         <v>2026</v>
@@ -5815,18 +5824,18 @@
         <v>39</v>
       </c>
       <c r="H164">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I164">
         <v>468</v>
       </c>
       <c r="J164" s="1">
-        <v>0.1368</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B165" s="2">
         <v>2026</v>
@@ -5847,18 +5856,18 @@
         <v>590</v>
       </c>
       <c r="H165">
-        <v>1048</v>
+        <v>594</v>
       </c>
       <c r="I165">
         <v>7080</v>
       </c>
       <c r="J165" s="1">
-        <v>0.14799999999999999</v>
+        <v>8.3900000000000002E-2</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B166" s="2">
         <v>2026</v>
@@ -5879,18 +5888,18 @@
         <v>964</v>
       </c>
       <c r="H166">
-        <v>1757</v>
+        <v>969</v>
       </c>
       <c r="I166">
         <v>11568</v>
       </c>
       <c r="J166" s="1">
-        <v>0.15190000000000001</v>
+        <v>8.3799999999999999E-2</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B167" s="2">
         <v>2026</v>
@@ -5911,18 +5920,18 @@
         <v>96</v>
       </c>
       <c r="H167">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="I167">
         <v>1152</v>
       </c>
       <c r="J167" s="1">
-        <v>0.13020000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B168" s="2">
         <v>2026</v>
@@ -5943,18 +5952,18 @@
         <v>13</v>
       </c>
       <c r="H168">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I168">
         <v>312</v>
       </c>
       <c r="J168" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B169" s="2">
         <v>2026</v>
@@ -5975,18 +5984,18 @@
         <v>7</v>
       </c>
       <c r="H169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I169">
         <v>84</v>
       </c>
       <c r="J169" s="1">
-        <v>7.1400000000000005E-2</v>
+        <v>3.5700000000000003E-2</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B170" s="2">
         <v>2026</v>
@@ -6018,7 +6027,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B171" s="2">
         <v>2026</v>
@@ -6039,18 +6048,18 @@
         <v>108</v>
       </c>
       <c r="H171">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="I171">
         <v>1296</v>
       </c>
       <c r="J171" s="1">
-        <v>0.11650000000000001</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B172" s="2">
         <v>2026</v>
@@ -6071,18 +6080,18 @@
         <v>47</v>
       </c>
       <c r="H172">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="I172">
         <v>564</v>
       </c>
       <c r="J172" s="1">
-        <v>0.14360000000000001</v>
+        <v>8.1600000000000006E-2</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B173" s="2">
         <v>2026</v>
@@ -6103,18 +6112,18 @@
         <v>7</v>
       </c>
       <c r="H173">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I173">
         <v>84</v>
       </c>
       <c r="J173" s="1">
-        <v>0.13100000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B174" s="2">
         <v>2026</v>
@@ -6135,18 +6144,18 @@
         <v>30</v>
       </c>
       <c r="H174">
-        <v>1765</v>
+        <v>1058</v>
       </c>
       <c r="I174">
         <v>10950</v>
       </c>
       <c r="J174" s="1">
-        <v>0.16120000000000001</v>
+        <v>9.6600000000000005E-2</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B175" s="2">
         <v>2026</v>
@@ -6178,7 +6187,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B176" s="2">
         <v>2026</v>
@@ -6207,7 +6216,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B177" s="2">
         <v>2026</v>
@@ -6228,18 +6237,18 @@
         <v>37</v>
       </c>
       <c r="H177">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I177">
         <v>148</v>
       </c>
       <c r="J177" s="1">
-        <v>0.16220000000000001</v>
+        <v>8.1100000000000005E-2</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B178" s="2">
         <v>2026</v>
@@ -6271,7 +6280,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B179" s="2">
         <v>2026</v>
@@ -6303,7 +6312,7 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B180" s="2">
         <v>2026</v>
@@ -6335,7 +6344,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B181" s="2">
         <v>2026</v>
@@ -6356,18 +6365,18 @@
         <v>170</v>
       </c>
       <c r="H181">
-        <v>286</v>
+        <v>162</v>
       </c>
       <c r="I181">
         <v>2040</v>
       </c>
       <c r="J181" s="1">
-        <v>0.14019999999999999</v>
+        <v>7.9399999999999998E-2</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B182" s="2">
         <v>2026</v>
@@ -6388,18 +6397,18 @@
         <v>36</v>
       </c>
       <c r="H182">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I182">
         <v>432</v>
       </c>
       <c r="J182" s="1">
-        <v>0.15279999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B183" s="2">
         <v>2026</v>
@@ -6420,18 +6429,18 @@
         <v>13</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I183">
         <v>156</v>
       </c>
       <c r="J183" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B184" s="2">
         <v>2026</v>
@@ -6452,18 +6461,18 @@
         <v>9</v>
       </c>
       <c r="H184">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I184">
         <v>108</v>
       </c>
       <c r="J184" s="1">
-        <v>0.14810000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B185" s="2">
         <v>2026</v>
@@ -6484,18 +6493,18 @@
         <v>88</v>
       </c>
       <c r="H185">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="I185">
         <v>1056</v>
       </c>
       <c r="J185" s="1">
-        <v>0.13539999999999999</v>
+        <v>8.43E-2</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B186" s="2">
         <v>2026</v>
@@ -6512,10 +6521,11 @@
       <c r="F186" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J186" s="1"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B187" s="2">
         <v>2026</v>
@@ -6547,7 +6557,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B188" s="2">
         <v>2026</v>
@@ -6568,18 +6578,18 @@
         <v>9</v>
       </c>
       <c r="H188">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I188">
         <v>216</v>
       </c>
       <c r="J188" s="1">
-        <v>0.14810000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B189" s="2">
         <v>2026</v>
@@ -6600,18 +6610,18 @@
         <v>9</v>
       </c>
       <c r="H189">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I189">
         <v>108</v>
       </c>
       <c r="J189" s="1">
-        <v>0.1389</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B190" s="2">
         <v>2026</v>
@@ -6632,18 +6642,18 @@
         <v>59</v>
       </c>
       <c r="H190">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="I190">
         <v>708</v>
       </c>
       <c r="J190" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B191" s="2">
         <v>2026</v>
@@ -6675,7 +6685,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B192" s="2">
         <v>2026</v>
@@ -6707,7 +6717,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B193" s="2">
         <v>2026</v>
@@ -6728,18 +6738,18 @@
         <v>9</v>
       </c>
       <c r="H193">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I193">
         <v>36</v>
       </c>
       <c r="J193" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B194" s="2">
         <v>2026</v>
@@ -6760,18 +6770,18 @@
         <v>9</v>
       </c>
       <c r="H194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>9</v>
       </c>
       <c r="J194" s="1">
-        <v>0.66669999999999996</v>
+        <v>0.22220000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B195" s="2">
         <v>2026</v>
@@ -6800,7 +6810,7 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B196" s="2">
         <v>2026</v>
@@ -6821,18 +6831,18 @@
         <v>27</v>
       </c>
       <c r="H196">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I196">
         <v>27</v>
       </c>
       <c r="J196" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.55559999999999998</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B197" s="2">
         <v>2026</v>
@@ -6864,7 +6874,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A198" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B198" s="2">
         <v>2026</v>
@@ -6885,18 +6895,18 @@
         <v>41</v>
       </c>
       <c r="H198">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I198">
         <v>41</v>
       </c>
       <c r="J198" s="1">
-        <v>0.439</v>
+        <v>0.34150000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B199" s="2">
         <v>2026</v>
@@ -6928,7 +6938,7 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B200" s="2">
         <v>2026</v>
@@ -6948,19 +6958,16 @@
       <c r="G200">
         <v>9</v>
       </c>
-      <c r="H200">
-        <v>8</v>
-      </c>
       <c r="I200">
         <v>36</v>
       </c>
       <c r="J200" s="1">
-        <v>0.22220000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B201" s="2">
         <v>2026</v>
@@ -6981,18 +6988,18 @@
         <v>45</v>
       </c>
       <c r="H201">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I201">
         <v>45</v>
       </c>
       <c r="J201" s="1">
-        <v>0.33329999999999999</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B202" s="2">
         <v>2026</v>
@@ -7013,18 +7020,18 @@
         <v>9</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I202">
         <v>36</v>
       </c>
       <c r="J202" s="1">
-        <v>0.1389</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B203" s="2">
         <v>2026</v>
@@ -7056,7 +7063,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B204" s="2">
         <v>2026</v>
@@ -7077,18 +7084,18 @@
         <v>188993</v>
       </c>
       <c r="H204">
-        <v>331430</v>
+        <v>188993</v>
       </c>
       <c r="I204">
         <v>2267916</v>
       </c>
       <c r="J204" s="1">
-        <v>0.14610000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B205" s="2">
         <v>2026</v>
@@ -7109,18 +7116,18 @@
         <v>183511</v>
       </c>
       <c r="H205">
-        <v>36981</v>
+        <v>12453</v>
       </c>
       <c r="I205">
         <v>367022</v>
       </c>
       <c r="J205" s="1">
-        <v>0.1008</v>
+        <v>3.39E-2</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B206" s="2">
         <v>2026</v>
@@ -7141,18 +7148,18 @@
         <v>174</v>
       </c>
       <c r="H206">
-        <v>658</v>
+        <v>348</v>
       </c>
       <c r="I206">
         <v>4176</v>
       </c>
       <c r="J206" s="1">
-        <v>0.15759999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B207" s="2">
         <v>2026</v>
@@ -7173,18 +7180,18 @@
         <v>188993</v>
       </c>
       <c r="H207">
-        <v>173047</v>
+        <v>69950</v>
       </c>
       <c r="I207">
         <v>755972</v>
       </c>
       <c r="J207" s="1">
-        <v>0.22889999999999999</v>
+        <v>9.2499999999999999E-2</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B208" s="2">
         <v>2026</v>
@@ -7205,18 +7212,18 @@
         <v>188993</v>
       </c>
       <c r="H208">
-        <v>49159</v>
+        <v>40025</v>
       </c>
       <c r="I208">
         <v>188993</v>
       </c>
       <c r="J208" s="1">
-        <v>0.2601</v>
+        <v>0.21179999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B209" s="2">
         <v>2026</v>
@@ -7237,18 +7244,18 @@
         <v>98</v>
       </c>
       <c r="H209">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I209">
         <v>392</v>
       </c>
       <c r="J209" s="1">
-        <v>0.1633</v>
+        <v>7.6499999999999999E-2</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B210" s="2">
         <v>2026</v>
@@ -7269,18 +7276,18 @@
         <v>127</v>
       </c>
       <c r="H210">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I210">
         <v>127</v>
       </c>
       <c r="J210" s="1">
-        <v>0.252</v>
+        <v>0.20469999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B211" s="2">
         <v>2026</v>
@@ -7301,18 +7308,18 @@
         <v>271</v>
       </c>
       <c r="H211">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I211">
         <v>542</v>
       </c>
       <c r="J211" s="1">
-        <v>0.11070000000000001</v>
+        <v>3.5099999999999999E-2</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B212" s="2">
         <v>2026</v>
@@ -7333,18 +7340,18 @@
         <v>133</v>
       </c>
       <c r="H212">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I212">
         <v>133</v>
       </c>
       <c r="J212" s="1">
-        <v>0.2331</v>
+        <v>0.15790000000000001</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B213" s="2">
         <v>2026</v>
@@ -7376,7 +7383,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B214" s="2">
         <v>2026</v>
@@ -7397,18 +7404,18 @@
         <v>5482</v>
       </c>
       <c r="H214">
-        <v>2348</v>
+        <v>370</v>
       </c>
       <c r="I214">
         <v>10964</v>
       </c>
       <c r="J214" s="1">
-        <v>0.2142</v>
+        <v>3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B215" s="2">
         <v>2026</v>
@@ -7425,10 +7432,11 @@
       <c r="F215" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J215" s="1"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B216" s="2">
         <v>2026</v>
@@ -7449,18 +7457,18 @@
         <v>263</v>
       </c>
       <c r="H216">
-        <v>989</v>
+        <v>528</v>
       </c>
       <c r="I216">
         <v>6312</v>
       </c>
       <c r="J216" s="1">
-        <v>0.15670000000000001</v>
+        <v>8.3699999999999997E-2</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B217" s="2">
         <v>2026</v>
@@ -7481,18 +7489,18 @@
         <v>40</v>
       </c>
       <c r="H217">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="I217">
         <v>480</v>
       </c>
       <c r="J217" s="1">
-        <v>0.1104</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B218" s="2">
         <v>2026</v>
@@ -7513,18 +7521,18 @@
         <v>408</v>
       </c>
       <c r="H218">
-        <v>735</v>
+        <v>390</v>
       </c>
       <c r="I218">
         <v>4896</v>
       </c>
       <c r="J218" s="1">
-        <v>0.15010000000000001</v>
+        <v>7.9699999999999993E-2</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B219" s="2">
         <v>2026</v>
@@ -7545,18 +7553,18 @@
         <v>550</v>
       </c>
       <c r="H219">
-        <v>941</v>
+        <v>552</v>
       </c>
       <c r="I219">
         <v>6600</v>
       </c>
       <c r="J219" s="1">
-        <v>0.1426</v>
+        <v>8.3599999999999994E-2</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B220" s="2">
         <v>2026</v>
@@ -7577,18 +7585,18 @@
         <v>76</v>
       </c>
       <c r="H220">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="I220">
         <v>912</v>
       </c>
       <c r="J220" s="1">
-        <v>0.125</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B221" s="2">
         <v>2026</v>
@@ -7609,18 +7617,18 @@
         <v>6</v>
       </c>
       <c r="H221">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I221">
         <v>144</v>
       </c>
       <c r="J221" s="1">
-        <v>0.15279999999999999</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B222" s="2">
         <v>2026</v>
@@ -7641,18 +7649,18 @@
         <v>19</v>
       </c>
       <c r="H222">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I222">
         <v>228</v>
       </c>
       <c r="J222" s="1">
-        <v>0.1096</v>
+        <v>7.0199999999999999E-2</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B223" s="2">
         <v>2026</v>
@@ -7684,7 +7692,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B224" s="2">
         <v>2026</v>
@@ -7705,18 +7713,18 @@
         <v>4</v>
       </c>
       <c r="H224">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I224">
         <v>48</v>
       </c>
       <c r="J224" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B225" s="2">
         <v>2026</v>
@@ -7737,18 +7745,18 @@
         <v>31</v>
       </c>
       <c r="H225">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I225">
         <v>372</v>
       </c>
       <c r="J225" s="1">
-        <v>0.121</v>
+        <v>7.5300000000000006E-2</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B226" s="2">
         <v>2026</v>
@@ -7769,18 +7777,18 @@
         <v>175</v>
       </c>
       <c r="H226">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="I226">
         <v>2100</v>
       </c>
       <c r="J226" s="1">
-        <v>0.1648</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B227" s="2">
         <v>2026</v>
@@ -7801,18 +7809,18 @@
         <v>9</v>
       </c>
       <c r="H227">
-        <v>775</v>
+        <v>487</v>
       </c>
       <c r="I227">
         <v>3285</v>
       </c>
       <c r="J227" s="1">
-        <v>0.2359</v>
+        <v>0.1482</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B228" s="2">
         <v>2026</v>
@@ -7833,18 +7841,18 @@
         <v>9</v>
       </c>
       <c r="H228">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>36</v>
       </c>
       <c r="J228" s="1">
-        <v>0.27779999999999999</v>
+        <v>2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B229" s="2">
         <v>2026</v>
@@ -7873,7 +7881,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B230" s="2">
         <v>2026</v>
@@ -7894,18 +7902,18 @@
         <v>34</v>
       </c>
       <c r="H230">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I230">
         <v>132</v>
       </c>
       <c r="J230" s="1">
-        <v>0.28789999999999999</v>
+        <v>6.8199999999999997E-2</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B231" s="2">
         <v>2026</v>
@@ -7934,7 +7942,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B232" s="2">
         <v>2026</v>
@@ -7966,7 +7974,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B233" s="2">
         <v>2026</v>
@@ -7987,18 +7995,18 @@
         <v>3654</v>
       </c>
       <c r="H233">
-        <v>5673</v>
+        <v>2898</v>
       </c>
       <c r="I233">
         <v>43848</v>
       </c>
       <c r="J233" s="1">
-        <v>0.12939999999999999</v>
+        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B234" s="2">
         <v>2026</v>
@@ -8018,7 +8026,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B235" s="2">
         <v>2026</v>
@@ -8038,7 +8046,7 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B236" s="2">
         <v>2026</v>
@@ -8058,7 +8066,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B237" s="2">
         <v>2026</v>
@@ -8078,7 +8086,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B238" s="2">
         <v>2026</v>
@@ -8098,7 +8106,7 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B239" s="2">
         <v>2026</v>
@@ -8115,10 +8123,11 @@
       <c r="F239" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="J239" s="1"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B240" s="2">
         <v>2026</v>
@@ -8147,7 +8156,7 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B241" s="2">
         <v>2026</v>
@@ -8168,18 +8177,18 @@
         <v>486</v>
       </c>
       <c r="H241">
-        <v>1842</v>
+        <v>972</v>
       </c>
       <c r="I241">
         <v>11664</v>
       </c>
       <c r="J241" s="1">
-        <v>0.15790000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B242" s="2">
         <v>2026</v>
@@ -8200,18 +8209,18 @@
         <v>25</v>
       </c>
       <c r="H242">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I242">
         <v>300</v>
       </c>
       <c r="J242" s="1">
-        <v>0.13669999999999999</v>
+        <v>0.1133</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B243" s="2">
         <v>2026</v>
@@ -8232,18 +8241,18 @@
         <v>68</v>
       </c>
       <c r="H243">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="I243">
         <v>816</v>
       </c>
       <c r="J243" s="1">
-        <v>0.1275</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B244" s="2">
         <v>2026</v>
@@ -8264,18 +8273,18 @@
         <v>729</v>
       </c>
       <c r="H244">
-        <v>1338</v>
+        <v>731</v>
       </c>
       <c r="I244">
         <v>8772</v>
       </c>
       <c r="J244" s="1">
-        <v>0.1525</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B245" s="2">
         <v>2026</v>
@@ -8296,18 +8305,18 @@
         <v>854</v>
       </c>
       <c r="H245">
-        <v>1659</v>
+        <v>922</v>
       </c>
       <c r="I245">
         <v>11040</v>
       </c>
       <c r="J245" s="1">
-        <v>0.15029999999999999</v>
+        <v>8.3500000000000005E-2</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B246" s="2">
         <v>2026</v>
@@ -8328,18 +8337,18 @@
         <v>121</v>
       </c>
       <c r="H246">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="I246">
         <v>1452</v>
       </c>
       <c r="J246" s="1">
-        <v>0.13500000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B247" s="2">
         <v>2026</v>
@@ -8360,18 +8369,18 @@
         <v>27</v>
       </c>
       <c r="H247">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="I247">
         <v>648</v>
       </c>
       <c r="J247" s="1">
-        <v>0.17130000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B248" s="2">
         <v>2026</v>
@@ -8388,10 +8397,11 @@
       <c r="F248" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="J248" s="1"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B249" s="2">
         <v>2026</v>
@@ -8423,7 +8433,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B250" s="2">
         <v>2026</v>
@@ -8444,18 +8454,18 @@
         <v>30</v>
       </c>
       <c r="H250">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I250">
         <v>360</v>
       </c>
       <c r="J250" s="1">
-        <v>0.1389</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B251" s="2">
         <v>2026</v>
@@ -8476,18 +8486,18 @@
         <v>51</v>
       </c>
       <c r="H251">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="I251">
         <v>624</v>
       </c>
       <c r="J251" s="1">
-        <v>0.1298</v>
+        <v>8.4900000000000003E-2</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B252" s="2">
         <v>2026</v>
@@ -8508,18 +8518,18 @@
         <v>337</v>
       </c>
       <c r="H252">
-        <v>656</v>
+        <v>338</v>
       </c>
       <c r="I252">
         <v>4044</v>
       </c>
       <c r="J252" s="1">
-        <v>0.16220000000000001</v>
+        <v>8.3599999999999994E-2</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B253" s="2">
         <v>2026</v>
@@ -8540,18 +8550,18 @@
         <v>50</v>
       </c>
       <c r="H253">
-        <v>3159</v>
+        <v>1859</v>
       </c>
       <c r="I253">
         <v>18972</v>
       </c>
       <c r="J253" s="1">
-        <v>0.16650000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B254" s="2">
         <v>2026</v>
@@ -8572,18 +8582,18 @@
         <v>58</v>
       </c>
       <c r="H254">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I254">
         <v>232</v>
       </c>
       <c r="J254" s="1">
-        <v>0.1724</v>
+        <v>0.1293</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B255" s="2">
         <v>2026</v>
@@ -8615,7 +8625,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B256" s="2">
         <v>2026</v>
@@ -8636,18 +8646,18 @@
         <v>56</v>
       </c>
       <c r="H256">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="I256">
         <v>228</v>
       </c>
       <c r="J256" s="1">
-        <v>0.1053</v>
+        <v>4.3900000000000002E-2</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B257" s="2">
         <v>2026</v>
@@ -8679,7 +8689,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B258" s="2">
         <v>2026</v>
@@ -8700,18 +8710,18 @@
         <v>4610</v>
       </c>
       <c r="H258">
-        <v>7024</v>
+        <v>4796</v>
       </c>
       <c r="I258">
         <v>55320</v>
       </c>
       <c r="J258" s="1">
-        <v>0.127</v>
+        <v>8.6699999999999999E-2</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B259" s="2">
         <v>2026</v>
@@ -8732,18 +8742,18 @@
         <v>44</v>
       </c>
       <c r="H259">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I259">
         <v>468</v>
       </c>
       <c r="J259" s="1">
-        <v>0.1154</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B260" s="2">
         <v>2026</v>
@@ -8764,18 +8774,18 @@
         <v>44</v>
       </c>
       <c r="H260">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I260">
         <v>78</v>
       </c>
       <c r="J260" s="1">
-        <v>8.9700000000000002E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B261" s="2">
         <v>2026</v>
@@ -8796,18 +8806,18 @@
         <v>90</v>
       </c>
       <c r="H261">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="I261">
         <v>1080</v>
       </c>
       <c r="J261" s="1">
-        <v>0.1222</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B262" s="2">
         <v>2026</v>
@@ -8828,18 +8838,18 @@
         <v>27</v>
       </c>
       <c r="H262">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I262">
         <v>192</v>
       </c>
       <c r="J262" s="1">
-        <v>0.13539999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B263" s="2">
         <v>2026</v>
@@ -8860,18 +8870,18 @@
         <v>121</v>
       </c>
       <c r="H263">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="I263">
         <v>1428</v>
       </c>
       <c r="J263" s="1">
-        <v>0.13450000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B264" s="2">
         <v>2026</v>
@@ -8903,7 +8913,7 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B265" s="2">
         <v>2026</v>
@@ -8924,18 +8934,18 @@
         <v>351</v>
       </c>
       <c r="H265">
-        <v>651</v>
+        <v>366</v>
       </c>
       <c r="I265">
         <v>4291</v>
       </c>
       <c r="J265" s="1">
-        <v>0.1517</v>
+        <v>8.5300000000000001E-2</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B266" s="2">
         <v>2026</v>
@@ -8956,18 +8966,18 @@
         <v>35</v>
       </c>
       <c r="H266">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="I266">
         <v>420</v>
       </c>
       <c r="J266" s="1">
-        <v>0.15</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A267" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B267" s="2">
         <v>2026</v>
@@ -8988,18 +8998,18 @@
         <v>232</v>
       </c>
       <c r="H267">
-        <v>423</v>
+        <v>232</v>
       </c>
       <c r="I267">
         <v>2784</v>
       </c>
       <c r="J267" s="1">
-        <v>0.15190000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A268" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B268" s="2">
         <v>2026</v>
@@ -9020,18 +9030,18 @@
         <v>66</v>
       </c>
       <c r="H268">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="I268">
         <v>792</v>
       </c>
       <c r="J268" s="1">
-        <v>0.15279999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A269" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B269" s="2">
         <v>2026</v>
@@ -9052,18 +9062,18 @@
         <v>84</v>
       </c>
       <c r="H269">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="I269">
         <v>1008</v>
       </c>
       <c r="J269" s="1">
-        <v>0.1429</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A270" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B270" s="2">
         <v>2026</v>
@@ -9080,10 +9090,11 @@
       <c r="F270" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="J270" s="1"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A271" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B271" s="2">
         <v>2026</v>
@@ -9104,18 +9115,18 @@
         <v>33</v>
       </c>
       <c r="H271">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="I271">
         <v>384</v>
       </c>
       <c r="J271" s="1">
-        <v>0.151</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A272" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B272" s="2">
         <v>2026</v>
@@ -9136,18 +9147,18 @@
         <v>3</v>
       </c>
       <c r="H272">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I272">
         <v>36</v>
       </c>
       <c r="J272" s="1">
-        <v>0.1389</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A273" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B273" s="2">
         <v>2026</v>
@@ -9167,7 +9178,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A274" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B274" s="2">
         <v>2026</v>
@@ -9184,10 +9195,11 @@
       <c r="F274" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J274" s="1"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A275" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B275" s="2">
         <v>2026</v>
@@ -9208,18 +9220,18 @@
         <v>51</v>
       </c>
       <c r="H275">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="I275">
         <v>276</v>
       </c>
       <c r="J275" s="1">
-        <v>0.1449</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A276" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B276" s="2">
         <v>2026</v>
@@ -9240,18 +9252,18 @@
         <v>445</v>
       </c>
       <c r="H276">
-        <v>804</v>
+        <v>445</v>
       </c>
       <c r="I276">
         <v>5340</v>
       </c>
       <c r="J276" s="1">
-        <v>0.15060000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A277" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B277" s="2">
         <v>2026</v>
@@ -9272,18 +9284,18 @@
         <v>17</v>
       </c>
       <c r="H277">
-        <v>776</v>
+        <v>465</v>
       </c>
       <c r="I277">
         <v>5110</v>
       </c>
       <c r="J277" s="1">
-        <v>0.15190000000000001</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A278" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B278" s="2">
         <v>2026</v>
@@ -9315,7 +9327,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A279" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B279" s="2">
         <v>2026</v>
@@ -9336,18 +9348,18 @@
         <v>11</v>
       </c>
       <c r="H279">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I279">
         <v>11</v>
       </c>
       <c r="J279" s="1">
-        <v>0.45450000000000002</v>
+        <v>9.0899999999999995E-2</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A280" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B280" s="2">
         <v>2026</v>
@@ -9368,18 +9380,18 @@
         <v>34</v>
       </c>
       <c r="H280">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I280">
         <v>136</v>
       </c>
       <c r="J280" s="1">
-        <v>0.24260000000000001</v>
+        <v>0.18379999999999999</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A281" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B281" s="2">
         <v>2026</v>
@@ -9411,7 +9423,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A282" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B282" s="2">
         <v>2026</v>
@@ -9432,18 +9444,18 @@
         <v>6</v>
       </c>
       <c r="H282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282">
         <v>12</v>
       </c>
       <c r="J282" s="1">
-        <v>0.25</v>
+        <v>0.16669999999999999</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A283" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B283" s="2">
         <v>2026</v>
@@ -9475,7 +9487,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A284" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B284" s="2">
         <v>2026</v>
@@ -9507,7 +9519,7 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A285" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B285" s="2">
         <v>2026</v>
@@ -9528,18 +9540,18 @@
         <v>33</v>
       </c>
       <c r="H285">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I285">
         <v>396</v>
       </c>
       <c r="J285" s="1">
-        <v>0.154</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A286" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B286" s="2">
         <v>2026</v>
@@ -9560,18 +9572,18 @@
         <v>23</v>
       </c>
       <c r="H286">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I286">
         <v>276</v>
       </c>
       <c r="J286" s="1">
-        <v>0.14130000000000001</v>
+        <v>7.9699999999999993E-2</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A287" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B287" s="2">
         <v>2026</v>
@@ -9592,18 +9604,18 @@
         <v>79</v>
       </c>
       <c r="H287">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="I287">
         <v>948</v>
       </c>
       <c r="J287" s="1">
-        <v>0.14349999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A288" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B288" s="2">
         <v>2026</v>
@@ -9620,10 +9632,11 @@
       <c r="F288" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J288" s="1"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A289" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B289" s="2">
         <v>2026</v>
@@ -9644,18 +9657,18 @@
         <v>21</v>
       </c>
       <c r="H289">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I289">
         <v>264</v>
       </c>
       <c r="J289" s="1">
-        <v>0.1326</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A290" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B290" s="2">
         <v>2026</v>
@@ -9673,21 +9686,21 @@
         <v>46</v>
       </c>
       <c r="G290">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H290">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I290">
         <v>44</v>
       </c>
       <c r="J290" s="1">
-        <v>0.20449999999999999</v>
+        <v>0.15909999999999999</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A291" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B291" s="2">
         <v>2026</v>
@@ -9708,18 +9721,18 @@
         <v>82</v>
       </c>
       <c r="H291">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="I291">
         <v>1968</v>
       </c>
       <c r="J291" s="1">
-        <v>0.15290000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A292" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B292" s="2">
         <v>2026</v>
@@ -9740,18 +9753,18 @@
         <v>173</v>
       </c>
       <c r="H292">
-        <v>528</v>
+        <v>344</v>
       </c>
       <c r="I292">
         <v>4128</v>
       </c>
       <c r="J292" s="1">
-        <v>0.12790000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A293" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B293" s="2">
         <v>2026</v>
@@ -9772,18 +9785,18 @@
         <v>74</v>
       </c>
       <c r="H293">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="I293">
         <v>888</v>
       </c>
       <c r="J293" s="1">
-        <v>0.14860000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A294" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B294" s="2">
         <v>2026</v>
@@ -9804,18 +9817,18 @@
         <v>110</v>
       </c>
       <c r="H294">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="I294">
         <v>1320</v>
       </c>
       <c r="J294" s="1">
-        <v>0.1265</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A295" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B295" s="2">
         <v>2026</v>
@@ -9836,18 +9849,18 @@
         <v>160</v>
       </c>
       <c r="H295">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="I295">
         <v>1920</v>
       </c>
       <c r="J295" s="1">
-        <v>0.15</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A296" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B296" s="2">
         <v>2026</v>
@@ -9868,18 +9881,18 @@
         <v>311</v>
       </c>
       <c r="H296">
-        <v>480</v>
+        <v>311</v>
       </c>
       <c r="I296">
         <v>3732</v>
       </c>
       <c r="J296" s="1">
-        <v>0.12859999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A297" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B297" s="2">
         <v>2026</v>
@@ -9900,18 +9913,18 @@
         <v>286</v>
       </c>
       <c r="H297">
-        <v>424</v>
+        <v>286</v>
       </c>
       <c r="I297">
         <v>3432</v>
       </c>
       <c r="J297" s="1">
-        <v>0.1235</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A298" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B298" s="2">
         <v>2026</v>
@@ -9932,18 +9945,18 @@
         <v>12</v>
       </c>
       <c r="H298">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I298">
         <v>144</v>
       </c>
       <c r="J298" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A299" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B299" s="2">
         <v>2026</v>
@@ -9964,18 +9977,18 @@
         <v>85</v>
       </c>
       <c r="H299">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="I299">
         <v>1020</v>
       </c>
       <c r="J299" s="1">
-        <v>0.11269999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A300" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B300" s="2">
         <v>2026</v>
@@ -9996,18 +10009,18 @@
         <v>44</v>
       </c>
       <c r="H300">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I300">
         <v>528</v>
       </c>
       <c r="J300" s="1">
-        <v>0.1515</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A301" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B301" s="2">
         <v>2026</v>
@@ -10028,18 +10041,18 @@
         <v>47</v>
       </c>
       <c r="H301">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I301">
         <v>564</v>
       </c>
       <c r="J301" s="1">
-        <v>0.156</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B302" s="2">
         <v>2026</v>
@@ -10060,18 +10073,18 @@
         <v>91</v>
       </c>
       <c r="H302">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="I302">
         <v>1092</v>
       </c>
       <c r="J302" s="1">
-        <v>0.1181</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B303" s="2">
         <v>2026</v>
@@ -10092,18 +10105,18 @@
         <v>13</v>
       </c>
       <c r="H303">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I303">
         <v>384</v>
       </c>
       <c r="J303" s="1">
-        <v>0.14319999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B304" s="2">
         <v>2026</v>
@@ -10123,7 +10136,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B305" s="2">
         <v>2026</v>
@@ -10140,10 +10153,11 @@
       <c r="F305" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J305" s="1"/>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B306" s="2">
         <v>2026</v>
@@ -10164,18 +10178,18 @@
         <v>17</v>
       </c>
       <c r="H306">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I306">
         <v>204</v>
       </c>
       <c r="J306" s="1">
-        <v>0.15690000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B307" s="2">
         <v>2026</v>
@@ -10196,18 +10210,18 @@
         <v>48</v>
       </c>
       <c r="H307">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="I307">
         <v>564</v>
       </c>
       <c r="J307" s="1">
-        <v>0.1489</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B308" s="2">
         <v>2026</v>
@@ -10228,18 +10242,18 @@
         <v>227</v>
       </c>
       <c r="H308">
-        <v>399</v>
+        <v>227</v>
       </c>
       <c r="I308">
         <v>2724</v>
       </c>
       <c r="J308" s="1">
-        <v>0.14649999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A309" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B309" s="2">
         <v>2026</v>
@@ -10260,18 +10274,18 @@
         <v>16</v>
       </c>
       <c r="H309">
-        <v>639</v>
+        <v>344</v>
       </c>
       <c r="I309">
         <v>5842</v>
       </c>
       <c r="J309" s="1">
-        <v>0.1094</v>
+        <v>5.8900000000000001E-2</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A310" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B310" s="2">
         <v>2026</v>
@@ -10303,7 +10317,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A311" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B311" s="2">
         <v>2026</v>
@@ -10335,7 +10349,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A312" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B312" s="2">
         <v>2026</v>
@@ -10356,18 +10370,18 @@
         <v>44</v>
       </c>
       <c r="H312">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I312">
         <v>180</v>
       </c>
       <c r="J312" s="1">
-        <v>0.17219999999999999</v>
+        <v>0.1278</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A313" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B313" s="2">
         <v>2026</v>
@@ -10399,7 +10413,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A314" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B314" s="2">
         <v>2026</v>
@@ -10431,7 +10445,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A315" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B315" s="2">
         <v>2026</v>
@@ -10452,18 +10466,18 @@
         <v>9</v>
       </c>
       <c r="H315">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I315">
         <v>18</v>
       </c>
       <c r="J315" s="1">
-        <v>0.22220000000000001</v>
+        <v>0.1111</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A316" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B316" s="2">
         <v>2026</v>
@@ -10484,18 +10498,18 @@
         <v>87</v>
       </c>
       <c r="H316">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="I316">
         <v>1044</v>
       </c>
       <c r="J316" s="1">
-        <v>0.13600000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A317" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B317" s="2">
         <v>2026</v>
@@ -10516,18 +10530,18 @@
         <v>228</v>
       </c>
       <c r="H317">
-        <v>400</v>
+        <v>228</v>
       </c>
       <c r="I317">
         <v>2736</v>
       </c>
       <c r="J317" s="1">
-        <v>0.1462</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A318" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B318" s="2">
         <v>2026</v>
@@ -10548,18 +10562,18 @@
         <v>22</v>
       </c>
       <c r="H318">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I318">
         <v>300</v>
       </c>
       <c r="J318" s="1">
-        <v>0.12670000000000001</v>
+        <v>7.3300000000000004E-2</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A319" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B319" s="2">
         <v>2026</v>
@@ -10580,18 +10594,18 @@
         <v>184</v>
       </c>
       <c r="H319">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="I319">
         <v>2196</v>
       </c>
       <c r="J319" s="1">
-        <v>0.1129</v>
+        <v>8.3799999999999999E-2</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A320" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B320" s="2">
         <v>2026</v>
@@ -10612,18 +10626,18 @@
         <v>3</v>
       </c>
       <c r="H320">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I320">
         <v>36</v>
       </c>
       <c r="J320" s="1">
-        <v>0.16669999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A321" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B321" s="2">
         <v>2026</v>
@@ -10643,7 +10657,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A322" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B322" s="2">
         <v>2026</v>
@@ -10663,7 +10677,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A323" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B323" s="2">
         <v>2026</v>
@@ -10677,10 +10691,11 @@
       <c r="F323" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J323" s="1"/>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A324" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B324" s="2">
         <v>2026</v>
@@ -10701,18 +10716,18 @@
         <v>96</v>
       </c>
       <c r="H324">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="I324">
         <v>2304</v>
       </c>
       <c r="J324" s="1">
-        <v>0.1641</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A325" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B325" s="2">
         <v>2026</v>
@@ -10733,18 +10748,18 @@
         <v>17</v>
       </c>
       <c r="H325">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I325">
         <v>204</v>
       </c>
       <c r="J325" s="1">
-        <v>0.152</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A326" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B326" s="2">
         <v>2026</v>
@@ -10765,18 +10780,18 @@
         <v>109</v>
       </c>
       <c r="H326">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="I326">
         <v>1308</v>
       </c>
       <c r="J326" s="1">
-        <v>0.159</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A327" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B327" s="2">
         <v>2026</v>
@@ -10797,18 +10812,18 @@
         <v>8</v>
       </c>
       <c r="H327">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I327">
         <v>96</v>
       </c>
       <c r="J327" s="1">
-        <v>0.13539999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A328" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B328" s="2">
         <v>2026</v>
@@ -10840,7 +10855,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A329" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B329" s="2">
         <v>2026</v>
@@ -10861,18 +10876,18 @@
         <v>5</v>
       </c>
       <c r="H329">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I329">
         <v>120</v>
       </c>
       <c r="J329" s="1">
-        <v>0.1583</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A330" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B330" s="2">
         <v>2026</v>
@@ -10893,18 +10908,18 @@
         <v>17</v>
       </c>
       <c r="H330">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I330">
         <v>204</v>
       </c>
       <c r="J330" s="1">
-        <v>0.152</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A331" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B331" s="2">
         <v>2026</v>
@@ -10925,18 +10940,18 @@
         <v>7</v>
       </c>
       <c r="H331">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I331">
         <v>84</v>
       </c>
       <c r="J331" s="1">
-        <v>0.15479999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A332" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B332" s="2">
         <v>2026</v>
@@ -10957,18 +10972,18 @@
         <v>200</v>
       </c>
       <c r="H332">
-        <v>387</v>
+        <v>200</v>
       </c>
       <c r="I332">
         <v>2400</v>
       </c>
       <c r="J332" s="1">
-        <v>0.1613</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A333" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B333" s="2">
         <v>2026</v>
@@ -10989,18 +11004,18 @@
         <v>14</v>
       </c>
       <c r="H333">
-        <v>742</v>
+        <v>434</v>
       </c>
       <c r="I333">
         <v>5110</v>
       </c>
       <c r="J333" s="1">
-        <v>0.1452</v>
+        <v>8.4900000000000003E-2</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A334" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B334" s="2">
         <v>2026</v>
@@ -11032,7 +11047,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A335" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B335" s="2">
         <v>2026</v>
@@ -11064,7 +11079,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A336" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B336" s="2">
         <v>2026</v>
@@ -11096,7 +11111,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A337" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B337" s="2">
         <v>2026</v>
@@ -11128,7 +11143,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A338" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B338" s="2">
         <v>2026</v>
@@ -11149,18 +11164,18 @@
         <v>10</v>
       </c>
       <c r="H338">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I338">
         <v>120</v>
       </c>
       <c r="J338" s="1">
-        <v>0.1583</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A339" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B339" s="2">
         <v>2026</v>
@@ -11192,7 +11207,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A340" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B340" s="2">
         <v>2026</v>
@@ -11212,7 +11227,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A341" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B341" s="2">
         <v>2026</v>
@@ -11232,7 +11247,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A342" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B342" s="2">
         <v>2026</v>
@@ -11249,10 +11264,11 @@
       <c r="F342" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J342" s="1"/>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A343" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B343" s="2">
         <v>2026</v>
@@ -11273,18 +11289,18 @@
         <v>392</v>
       </c>
       <c r="H343">
-        <v>1456</v>
+        <v>784</v>
       </c>
       <c r="I343">
         <v>9250</v>
       </c>
       <c r="J343" s="1">
-        <v>0.15740000000000001</v>
+        <v>8.48E-2</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A344" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B344" s="2">
         <v>2026</v>
@@ -11305,18 +11321,18 @@
         <v>39</v>
       </c>
       <c r="H344">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="I344">
         <v>468</v>
       </c>
       <c r="J344" s="1">
-        <v>0.14960000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A345" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B345" s="2">
         <v>2026</v>
@@ -11337,18 +11353,18 @@
         <v>778</v>
       </c>
       <c r="H345">
-        <v>1322</v>
+        <v>767</v>
       </c>
       <c r="I345">
         <v>9201</v>
       </c>
       <c r="J345" s="1">
-        <v>0.14369999999999999</v>
+        <v>8.3400000000000002E-2</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A346" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B346" s="2">
         <v>2026</v>
@@ -11369,18 +11385,18 @@
         <v>16</v>
       </c>
       <c r="H346">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I346">
         <v>192</v>
       </c>
       <c r="J346" s="1">
-        <v>0.13020000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A347" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B347" s="2">
         <v>2026</v>
@@ -11401,18 +11417,18 @@
         <v>26</v>
       </c>
       <c r="H347">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I347">
         <v>312</v>
       </c>
       <c r="J347" s="1">
-        <v>0.15379999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A348" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B348" s="2">
         <v>2026</v>
@@ -11433,18 +11449,18 @@
         <v>24</v>
       </c>
       <c r="H348">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="I348">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="J348" s="1">
-        <v>0.14760000000000001</v>
+        <v>8.0500000000000002E-2</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A349" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B349" s="2">
         <v>2026</v>
@@ -11465,18 +11481,18 @@
         <v>7</v>
       </c>
       <c r="H349">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I349">
         <v>40</v>
       </c>
       <c r="J349" s="1">
-        <v>0.32500000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A350" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B350" s="2">
         <v>2026</v>
@@ -11497,18 +11513,18 @@
         <v>9</v>
       </c>
       <c r="H350">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I350">
         <v>108</v>
       </c>
       <c r="J350" s="1">
-        <v>0.1111</v>
+        <v>6.4799999999999996E-2</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A351" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B351" s="2">
         <v>2026</v>
@@ -11529,18 +11545,18 @@
         <v>925</v>
       </c>
       <c r="H351">
-        <v>1541</v>
+        <v>910</v>
       </c>
       <c r="I351">
         <v>10766</v>
       </c>
       <c r="J351" s="1">
-        <v>0.1431</v>
+        <v>8.4500000000000006E-2</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A352" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B352" s="2">
         <v>2026</v>
@@ -11561,18 +11577,18 @@
         <v>45</v>
       </c>
       <c r="H352">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I352">
         <v>540</v>
       </c>
       <c r="J352" s="1">
-        <v>0.1241</v>
+        <v>8.1500000000000003E-2</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A353" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B353" s="2">
         <v>2026</v>
@@ -11593,18 +11609,18 @@
         <v>35</v>
       </c>
       <c r="H353">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I353">
         <v>420</v>
       </c>
       <c r="J353" s="1">
-        <v>0.1452</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A354" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B354" s="2">
         <v>2026</v>
@@ -11625,18 +11641,18 @@
         <v>145</v>
       </c>
       <c r="H354">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="I354">
         <v>1740</v>
       </c>
       <c r="J354" s="1">
-        <v>0.14660000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A355" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B355" s="2">
         <v>2026</v>
@@ -11654,21 +11670,21 @@
         <v>41</v>
       </c>
       <c r="G355">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H355">
-        <v>4768</v>
+        <v>2934</v>
       </c>
       <c r="I355">
-        <v>38161</v>
+        <v>36865</v>
       </c>
       <c r="J355" s="1">
-        <v>0.1249</v>
+        <v>7.9600000000000004E-2</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A356" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B356" s="2">
         <v>2026</v>
@@ -11689,18 +11705,18 @@
         <v>88</v>
       </c>
       <c r="H356">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I356">
         <v>352</v>
       </c>
       <c r="J356" s="1">
-        <v>0.11360000000000001</v>
+        <v>9.0899999999999995E-2</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A357" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B357" s="2">
         <v>2026</v>
@@ -11721,18 +11737,18 @@
         <v>88</v>
       </c>
       <c r="H357">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I357">
         <v>88</v>
       </c>
       <c r="J357" s="1">
-        <v>0.45450000000000002</v>
+        <v>0.36359999999999998</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A358" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B358" s="2">
         <v>2026</v>
@@ -11753,18 +11769,18 @@
         <v>33</v>
       </c>
       <c r="H358">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I358">
         <v>132</v>
       </c>
       <c r="J358" s="1">
-        <v>0.16669999999999999</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A359" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B359" s="2">
         <v>2026</v>
@@ -11785,18 +11801,18 @@
         <v>33</v>
       </c>
       <c r="H359">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I359">
         <v>33</v>
       </c>
       <c r="J359" s="1">
-        <v>0.2727</v>
+        <v>0.18179999999999999</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A360" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B360" s="2">
         <v>2026</v>
@@ -11828,7 +11844,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A361" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B361" s="2">
         <v>2026</v>
@@ -11860,7 +11876,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A362" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B362" s="2">
         <v>2026</v>
@@ -11881,18 +11897,18 @@
         <v>3296</v>
       </c>
       <c r="H362">
-        <v>5786</v>
+        <v>3296</v>
       </c>
       <c r="I362">
         <v>39552</v>
       </c>
       <c r="J362" s="1">
-        <v>0.14630000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A363" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B363" s="2">
         <v>2026</v>
@@ -11913,18 +11929,18 @@
         <v>33</v>
       </c>
       <c r="H363">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I363">
         <v>396</v>
       </c>
       <c r="J363" s="1">
-        <v>0.14899999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A364" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B364" s="2">
         <v>2026</v>
@@ -11945,18 +11961,18 @@
         <v>11</v>
       </c>
       <c r="H364">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I364">
         <v>132</v>
       </c>
       <c r="J364" s="1">
-        <v>0.13639999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A365" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B365" s="2">
         <v>2026</v>
@@ -11977,18 +11993,18 @@
         <v>24</v>
       </c>
       <c r="H365">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I365">
         <v>288</v>
       </c>
       <c r="J365" s="1">
-        <v>0.15279999999999999</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A366" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B366" s="2">
         <v>2026</v>
@@ -12020,7 +12036,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A367" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B367" s="2">
         <v>2026</v>
@@ -12041,18 +12057,18 @@
         <v>3</v>
       </c>
       <c r="H367">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I367">
         <v>64</v>
       </c>
       <c r="J367" s="1">
-        <v>9.3799999999999994E-2</v>
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A368" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B368" s="2">
         <v>2026</v>
@@ -12063,10 +12079,11 @@
       <c r="D368" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="J368" s="1"/>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A369" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B369" s="2">
         <v>2026</v>
@@ -12084,21 +12101,21 @@
         <v>28</v>
       </c>
       <c r="G369">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H369">
-        <v>688</v>
+        <v>556</v>
       </c>
       <c r="I369">
-        <v>6696</v>
+        <v>6672</v>
       </c>
       <c r="J369" s="1">
-        <v>0.1027</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A370" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B370" s="2">
         <v>2026</v>
@@ -12119,18 +12136,18 @@
         <v>129</v>
       </c>
       <c r="H370">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="I370">
         <v>1548</v>
       </c>
       <c r="J370" s="1">
-        <v>0.10340000000000001</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A371" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B371" s="2">
         <v>2026</v>
@@ -12148,21 +12165,21 @@
         <v>30</v>
       </c>
       <c r="G371">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="H371">
-        <v>600</v>
+        <v>544</v>
       </c>
       <c r="I371">
-        <v>6396</v>
+        <v>6636</v>
       </c>
       <c r="J371" s="1">
-        <v>9.3799999999999994E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A372" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B372" s="2">
         <v>2026</v>
@@ -12183,18 +12200,18 @@
         <v>315</v>
       </c>
       <c r="H372">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="I372">
-        <v>3786</v>
+        <v>3780</v>
       </c>
       <c r="J372" s="1">
-        <v>0.1027</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A373" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B373" s="2">
         <v>2026</v>
@@ -12215,18 +12232,18 @@
         <v>20</v>
       </c>
       <c r="H373">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I373">
         <v>240</v>
       </c>
       <c r="J373" s="1">
-        <v>9.1700000000000004E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A374" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B374" s="2">
         <v>2026</v>
@@ -12247,18 +12264,18 @@
         <v>19</v>
       </c>
       <c r="H374">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I374">
         <v>228</v>
       </c>
       <c r="J374" s="1">
-        <v>0.1009</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A375" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B375" s="2">
         <v>2026</v>
@@ -12276,21 +12293,21 @@
         <v>28</v>
       </c>
       <c r="G375">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H375">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I375">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="J375" s="1">
-        <v>9.5200000000000007E-2</v>
+        <v>7.9200000000000007E-2</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A376" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B376" s="2">
         <v>2026</v>
@@ -12311,18 +12328,18 @@
         <v>86</v>
       </c>
       <c r="H376">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I376">
         <v>1032</v>
       </c>
       <c r="J376" s="1">
-        <v>9.11E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A377" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B377" s="2">
         <v>2026</v>
@@ -12339,10 +12356,11 @@
       <c r="F377" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="J377" s="1"/>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A378" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B378" s="2">
         <v>2026</v>
@@ -12374,7 +12392,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A379" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B379" s="2">
         <v>2026</v>
@@ -12395,18 +12413,18 @@
         <v>32</v>
       </c>
       <c r="H379">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I379">
         <v>384</v>
       </c>
       <c r="J379" s="1">
-        <v>8.3299999999999999E-2</v>
+        <v>8.0699999999999994E-2</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A380" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B380" s="2">
         <v>2026</v>
@@ -12424,21 +12442,21 @@
         <v>30</v>
       </c>
       <c r="G380">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="H380">
-        <v>699</v>
+        <v>604</v>
       </c>
       <c r="I380">
-        <v>7212</v>
+        <v>7380</v>
       </c>
       <c r="J380" s="1">
-        <v>9.69E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A381" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B381" s="2">
         <v>2026</v>
@@ -12456,21 +12474,21 @@
         <v>41</v>
       </c>
       <c r="G381">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H381">
-        <v>1653</v>
+        <v>1597</v>
       </c>
       <c r="I381">
         <v>17695</v>
       </c>
       <c r="J381" s="1">
-        <v>9.3399999999999997E-2</v>
+        <v>9.0300000000000005E-2</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A382" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B382" s="2">
         <v>2026</v>
@@ -12491,18 +12509,18 @@
         <v>175</v>
       </c>
       <c r="H382">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I382">
         <v>700</v>
       </c>
       <c r="J382" s="1">
-        <v>0.19289999999999999</v>
+        <v>0.18709999999999999</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A383" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B383" s="2">
         <v>2026</v>
@@ -12523,18 +12541,18 @@
         <v>175</v>
       </c>
       <c r="H383">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I383">
         <v>175</v>
       </c>
       <c r="J383" s="1">
-        <v>0.77139999999999997</v>
+        <v>0.74860000000000004</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A384" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B384" s="2">
         <v>2026</v>
@@ -12555,18 +12573,18 @@
         <v>48</v>
       </c>
       <c r="H384">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I384">
         <v>192</v>
       </c>
       <c r="J384" s="1">
-        <v>0.25519999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A385" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B385" s="2">
         <v>2026</v>
@@ -12587,18 +12605,18 @@
         <v>48</v>
       </c>
       <c r="H385">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I385">
         <v>48</v>
       </c>
       <c r="J385" s="1">
-        <v>0.9375</v>
+        <v>0.85419999999999996</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A386" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B386" s="2">
         <v>2026</v>
@@ -12615,10 +12633,11 @@
       <c r="F386" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="J386" s="1"/>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A387" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B387" s="2">
         <v>2026</v>
@@ -12639,18 +12658,18 @@
         <v>13</v>
       </c>
       <c r="H387">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I387">
         <v>26</v>
       </c>
       <c r="J387" s="1">
-        <v>0.30769999999999997</v>
+        <v>0.26919999999999999</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A388" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B388" s="2">
         <v>2026</v>
@@ -12671,18 +12690,18 @@
         <v>50</v>
       </c>
       <c r="H388">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I388">
         <v>600</v>
       </c>
       <c r="J388" s="1">
-        <v>0.1</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A389" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B389" s="2">
         <v>2026</v>
@@ -12703,18 +12722,18 @@
         <v>48</v>
       </c>
       <c r="H389">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I389">
         <v>576</v>
       </c>
       <c r="J389" s="1">
-        <v>9.5500000000000002E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A390" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B390" s="2">
         <v>2026</v>
@@ -12735,18 +12754,18 @@
         <v>17</v>
       </c>
       <c r="H390">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I390">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="J390" s="1">
-        <v>9.2600000000000002E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A391" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B391" s="2">
         <v>2026</v>
@@ -12778,7 +12797,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A392" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B392" s="2">
         <v>2026</v>
@@ -12799,18 +12818,18 @@
         <v>62</v>
       </c>
       <c r="H392">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I392">
         <v>744</v>
       </c>
       <c r="J392" s="1">
-        <v>9.4100000000000003E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A393" s="3">
-        <v>46076</v>
+        <v>46053</v>
       </c>
       <c r="B393" s="2">
         <v>2026</v>
@@ -12828,16 +12847,16 @@
         <v>46</v>
       </c>
       <c r="G393">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H393">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I393">
-        <v>744</v>
+        <v>348</v>
       </c>
       <c r="J393" s="1">
-        <v>2.1499999999999998E-2</v>
+        <v>8.3299999999999999E-2</v>
       </c>
     </row>
   </sheetData>
